--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_91_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_91_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.7299585812964393, 4.517689855298131]</t>
+          <t>[3.743287818029648, 4.504360618564922]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[2.5220793875665812, 2.6981846814615045]</t>
+          <t>[2.5095004380026573, 2.7107636310254284]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.12300252521827204, 0.5289452146107525]</t>
+          <t>[0.1229800816296649, 0.5289676581993596]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.002284844638704264</v>
+        <v>0.002287161878824495</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002284844638704264</v>
+        <v>0.002287161878824495</v>
       </c>
       <c r="W2" t="n">
         <v>15.12320320320374</v>
       </c>
       <c r="X2" t="n">
-        <v>14.76066066066118</v>
+        <v>14.70886886886938</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.48574574574629</v>
+        <v>15.53753753753809</v>
       </c>
     </row>
   </sheetData>
